--- a/biology/Botanique/Cotyledon_tomentosa/Cotyledon_tomentosa.xlsx
+++ b/biology/Botanique/Cotyledon_tomentosa/Cotyledon_tomentosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cotyledon tomentosa
 Cotyledon tomentosa est une espèce du genre Cotyledon. Originaire d'Afrique, cette espèce est dotée de grandes feuilles vertes et duveteuses, trapues et ovales, dentelées aux extrémités qui donnent l'impression de pattes d'ours. Au printemps, elle forme de grandes fleurs orange en forme de cloche. En Afrique, cette espèce se développe généralement dans des zones avec un excellent drainage assuré par un sol très poreux. Elle se développe avec une lumière vive et un flux d'air suffisant.
@@ -512,14 +524,16 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (1 juin 2019)[2], Catalogue of Life                                   (1 juin 2019)[3] et NCBI  (1 juin 2019)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (1 juin 2019), Catalogue of Life                                   (1 juin 2019) et NCBI  (1 juin 2019) :
 sous-espèce Cotyledon tomentosa subsp. ladismithiensis (Poelln.) Toelken
 sous-espèce Cotyledon tomentosa subsp. tomentosa
-Selon The Plant List            (1 juin 2019)[1] :
+Selon The Plant List            (1 juin 2019) :
 sous-espèce Cotyledon tomentosa subsp. ladismithiensis (Poelln.) Toelken
-Selon Tropicos                                           (1 juin 2019)[5] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (1 juin 2019) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Cotyledon tomentosa subsp. ladismithiensis (Poelln.) Toelken
 sous-espèce Cotyledon tomentosa subsp. ladysmithiensis Toelken
 sous-espèce Cotyledon tomentosa subsp. tomentosa Harv.</t>
